--- a/biology/Botanique/Forêt_de_Bord-Louviers/Forêt_de_Bord-Louviers.xlsx
+++ b/biology/Botanique/Forêt_de_Bord-Louviers/Forêt_de_Bord-Louviers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Bord-Louviers</t>
+          <t>Forêt_de_Bord-Louviers</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt domaniale de Bord-Louviers est un massif forestier français de 4 568 hectares situé dans l'Eure près du confluent de l'Eure et de la Seine.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Bord-Louviers</t>
+          <t>Forêt_de_Bord-Louviers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mentionnée en latin médiéval en 1014 sous la forme Bortis. Il s'agit peut-être d'un appellatif celtique *borto ayant un sens forestier.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Bord-Louviers</t>
+          <t>Forêt_de_Bord-Louviers</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Patrimoine naturel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt de Bord-Louviers est en zone naturelle d'intérêt écologique, faunistique et floristique[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt de Bord-Louviers est en zone naturelle d'intérêt écologique, faunistique et floristique.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Bord-Louviers</t>
+          <t>Forêt_de_Bord-Louviers</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,12 +591,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Des sources anciennes, à partir du XIe siècle, mentionnent imprécisément la forêt de Bord comme partie du fisc, le domaine royal. Cela est corroboré par l'échange que réalise Richard Cœur-de-Lion le 16 octobre 1197 avec l'archevêché de Rouen concernant la partie de la forêt de Bord proche de Louviers contre la ville des Andelys où il construisait le Château-Gaillard. C'est l'origine de la « forêt de Louviers ». 
-En 1239, Pierre de Colmieu, archevêque de Rouen, souhaitant mettre fin aux querelles opposant l'archevêché à la Couronne sur la forêt de Louviers, opère un échange avec 106 acres de la forêt de Roumare[2].
+En 1239, Pierre de Colmieu, archevêque de Rouen, souhaitant mettre fin aux querelles opposant l'archevêché à la Couronne sur la forêt de Louviers, opère un échange avec 106 acres de la forêt de Roumare.
 Le 2 novembre 1789, la forêt de Bord, domaine royal, est incorporée au domaine de l'État, puis la forêt de Louviers est nationalisée en tant que bien religieux.
-En 1983, les deux domaines sont réunis en une seule entité administrative : la forêt de Bord-Louviers[3].
+En 1983, les deux domaines sont réunis en une seule entité administrative : la forêt de Bord-Louviers.
 </t>
         </is>
       </c>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Bord-Louviers</t>
+          <t>Forêt_de_Bord-Louviers</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,9 +627,11 @@
           <t>Sept arbres remarquables</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Depuis octobre 2018, sept arbres remarquables font l'objet d'un circuit de découverte[4]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Depuis octobre 2018, sept arbres remarquables font l'objet d'un circuit de découverte. 
 Le hêtre Tabouël
 Les Quatre Frères
 Les arbres du petit Saint-Ouen
@@ -628,7 +648,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Bord-Louviers</t>
+          <t>Forêt_de_Bord-Louviers</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -646,7 +666,9 @@
           <t>Exploitation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt se compose de 340 parcelles.
 Les arbres composant le jardin intérieur du site Tolbiac de la Bibliothèque nationale de France sont des pins de la forêt de Bord-Louviers récupérés adultes là où une carrière devait les faire disparaître, et transportés en convoi exceptionnel. Dès leur transplantation, ils furent haubanés car le ré-enracinement est délicat avec des sujets adultes.
